--- a/09-15-24 to 09-21-24 Madison Schedule.xlsx
+++ b/09-15-24 to 09-21-24 Madison Schedule.xlsx
@@ -680,11 +680,7 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>*OUTSIDE AUDITORS</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>

--- a/09-15-24 to 09-21-24 Madison Schedule.xlsx
+++ b/09-15-24 to 09-21-24 Madison Schedule.xlsx
@@ -680,7 +680,11 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
@@ -725,7 +729,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -772,7 +776,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>MARIANO'S #517 +FUEL CTR-RX, OAK LAWN</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -819,7 +823,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>MARIANO'S #517 +FUEL CTR-RX, OAK LAWN</t>
+          <t>11000 S CICERO AVE</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -866,7 +870,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>11000 S CICERO AVE</t>
+          <t>https://goo.gl/maps/n5qPPg3gEsC2</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -913,7 +917,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/n5qPPg3gEsC2</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -952,7 +956,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t xml:space="preserve">HABA &amp; LIQUOR RESET-REMAPPED </t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1012,7 +1016,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve">HABA &amp; LIQUOR RESET-REMAPPED </t>
+          <t>*IL Meet is 4:15 am at IL Office</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1075,7 +1079,7 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:15 am at IL Office</t>
+          <t>*OUTSIDE AUDITORS</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
@@ -1634,10 +1638,15 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lorena</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>@ Store,
+After c-store</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
@@ -1691,22 +1700,9 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>@ Store,
-After c-store</t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
@@ -1822,7 +1818,11 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
@@ -1881,7 +1881,7 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1945,7 +1945,7 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>SULLIVAN'S SAVANNA STATION #276</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -2008,7 +2008,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>SULLIVAN'S SAVANNA STATION #276</t>
+          <t>1230 CHICAGO AVE</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -2072,7 +2072,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1230 CHICAGO AVE</t>
+          <t>https://goo.gl/maps/jvzQV9VdYyX6QkhM8</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -2135,7 +2135,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/jvzQV9VdYyX6QkhM8</t>
+          <t>*IL Meet is 4:30 am at IL Office</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -2192,11 +2192,7 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>*IL Meet is 4:30 am at IL Office</t>
-        </is>
-      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
@@ -2250,9 +2246,22 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry 3, Equip</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -2299,20 +2308,15 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Driver,
-Camry 3, Equip</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
@@ -2373,16 +2377,8 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
@@ -2489,7 +2485,11 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
@@ -2543,7 +2543,7 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -2604,7 +2604,7 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>BUTERA MARKET #503, SOUTH ELGIN</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -2663,7 +2663,7 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>BUTERA MARKET #503, SOUTH ELGIN</t>
+          <t>1175 W SPRING STREET</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -2724,7 +2724,7 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1175 W SPRING STREET</t>
+          <t>https://goo.gl/maps/uiv69gCiLa9sHQt39</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/uiv69gCiLa9sHQt39</t>
+          <t>*IL Meet is 5:00 am at IL Office</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -2868,7 +2868,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:00 am at IL Office</t>
+          <t>Counting Liq at this location too this time (will be mapped)</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -4133,21 +4133,9 @@
       </c>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="W65" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
     </row>

--- a/09-15-24 to 09-21-24 Madison Schedule.xlsx
+++ b/09-15-24 to 09-21-24 Madison Schedule.xlsx
@@ -682,7 +682,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>*OUTSIDE AUDITORS</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -729,7 +729,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -776,7 +776,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>MARIANO'S #517 +FUEL CTR-RX, OAK LAWN</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -823,7 +823,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>11000 S CICERO AVE</t>
+          <t>MARIANO'S #517 +FUEL CTR-RX, OAK LAWN</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -870,7 +870,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/n5qPPg3gEsC2</t>
+          <t>11000 S CICERO AVE</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -917,7 +917,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>https://goo.gl/maps/n5qPPg3gEsC2</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -956,7 +956,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t xml:space="preserve">HABA &amp; LIQUOR RESET-REMAPPED </t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1016,7 +1016,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:15 am at IL Office</t>
+          <t xml:space="preserve">HABA &amp; LIQUOR RESET-REMAPPED </t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1079,7 +1079,7 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>*OUTSIDE AUDITORS</t>
+          <t>*IL Meet is 4:15 am at IL Office</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>

--- a/09-15-24 to 09-21-24 Madison Schedule.xlsx
+++ b/09-15-24 to 09-21-24 Madison Schedule.xlsx
@@ -682,7 +682,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>*OUTSIDE AUDITORS</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -729,7 +729,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -776,7 +776,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>MARIANO'S #517 +FUEL CTR-RX, OAK LAWN</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -823,7 +823,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>MARIANO'S #517 +FUEL CTR-RX, OAK LAWN</t>
+          <t>11000 S CICERO AVE</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -870,7 +870,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>11000 S CICERO AVE</t>
+          <t>https://goo.gl/maps/n5qPPg3gEsC2</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -917,7 +917,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/n5qPPg3gEsC2</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -956,7 +956,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t xml:space="preserve">HABA &amp; LIQUOR RESET-REMAPPED </t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1016,7 +1016,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve">HABA &amp; LIQUOR RESET-REMAPPED </t>
+          <t>*IL Meet is 4:15 am at IL Office</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1079,7 +1079,7 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:15 am at IL Office</t>
+          <t>*OUTSIDE AUDITORS</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>

--- a/09-15-24 to 09-21-24 Madison Schedule.xlsx
+++ b/09-15-24 to 09-21-24 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y85"/>
+  <dimension ref="A1:Y86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,7 +682,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>*OUTSIDE AUDITORS</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -729,7 +729,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -776,7 +776,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>MARIANO'S #517 +FUEL CTR-RX, OAK LAWN</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -823,7 +823,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>11000 S CICERO AVE</t>
+          <t>MARIANO'S #517 +FUEL CTR-RX, OAK LAWN</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -870,7 +870,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/n5qPPg3gEsC2</t>
+          <t>11000 S CICERO AVE</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -917,7 +917,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>https://goo.gl/maps/n5qPPg3gEsC2</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -956,7 +956,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t xml:space="preserve">HABA &amp; LIQUOR RESET-REMAPPED </t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1016,7 +1016,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:15 am at IL Office</t>
+          <t xml:space="preserve">HABA &amp; LIQUOR RESET-REMAPPED </t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1079,7 +1079,7 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>*OUTSIDE AUDITORS</t>
+          <t>*IL Meet is 4:15 am at IL Office</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>
@@ -1325,15 +1325,10 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Camry 3</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
     </row>
@@ -1406,10 +1401,15 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3</t>
+        </is>
+      </c>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W21" t="inlineStr"/>
@@ -1550,15 +1550,10 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Camry 3</t>
-        </is>
-      </c>
+          <t>Lorena</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
     </row>
@@ -1620,9 +1615,22 @@
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3</t>
+        </is>
+      </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
     </row>
@@ -1638,15 +1646,10 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>@ Store,
-After c-store</t>
-        </is>
-      </c>
+          <t>Makeda</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
@@ -1700,9 +1703,22 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>@ Store,
+After c-store</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
@@ -1747,11 +1763,7 @@
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
@@ -1792,20 +1804,15 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Optima</t>
-        </is>
-      </c>
+          <t>Makeda</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -1818,11 +1825,7 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
@@ -1852,21 +1855,20 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Optima,
-Rx</t>
+Optima</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr">
         <is>
-          <t>PICK #407 +RX, WEST MILWAUKEE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
@@ -1881,7 +1883,7 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1918,19 +1920,21 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Curt</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Optima,
+Rx</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr">
         <is>
-          <t>2201 MILLER PARKWAY</t>
+          <t>PICK #407 +RX, WEST MILWAUKEE</t>
         </is>
       </c>
       <c r="W28" t="inlineStr"/>
@@ -1945,7 +1949,7 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>SULLIVAN'S SAVANNA STATION #276</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1981,7 +1985,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Curt</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -1993,7 +1997,7 @@
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Wj6P3UJePS32</t>
+          <t>2201 MILLER PARKWAY</t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
@@ -2008,7 +2012,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1230 CHICAGO AVE</t>
+          <t>SULLIVAN'S SAVANNA STATION #276</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -2045,7 +2049,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -2057,7 +2061,7 @@
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:30 am at IL Office</t>
+          <t>https://goo.gl/maps/Wj6P3UJePS32</t>
         </is>
       </c>
       <c r="W30" t="inlineStr"/>
@@ -2072,7 +2076,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/jvzQV9VdYyX6QkhM8</t>
+          <t>1230 CHICAGO AVE</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -2108,7 +2112,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2120,7 +2124,7 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
-          <t>STORE RESET-REMAPPED</t>
+          <t>*IL Meet is 4:30 am at IL Office</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -2135,7 +2139,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:30 am at IL Office</t>
+          <t>https://goo.gl/maps/jvzQV9VdYyX6QkhM8</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -2171,7 +2175,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -2181,7 +2185,11 @@
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>STORE RESET-REMAPPED</t>
+        </is>
+      </c>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
@@ -2192,7 +2200,11 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>*IL Meet is 4:30 am at IL Office</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
@@ -2219,25 +2231,25 @@
         </is>
       </c>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Robyn</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
     </row>
@@ -2246,22 +2258,9 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Driver,
-Camry 3, Equip</t>
-        </is>
-      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -2289,15 +2288,19 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
     </row>
@@ -2308,15 +2311,20 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry 3, Equip</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
@@ -2351,21 +2359,17 @@
       </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2377,8 +2381,16 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
@@ -2413,14 +2425,14 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -2460,14 +2472,14 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1178 LAKE GENEVA</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -2485,11 +2497,7 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
@@ -2511,27 +2519,22 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>146 E GENEVA SQ</t>
+          <t>AURORA OUTPATIENT RX #1178 LAKE GENEVA</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>Driver,
-Gray Van</t>
-        </is>
-      </c>
+          <t>Makeda</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
     </row>
@@ -2543,7 +2546,7 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -2577,22 +2580,27 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/7Ady9a9f1nnktk6MA</t>
+          <t>146 E GENEVA SQ</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Driver,
+Gray Van</t>
+        </is>
+      </c>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
     </row>
@@ -2604,7 +2612,7 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>BUTERA MARKET #503, SOUTH ELGIN</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -2616,7 +2624,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2632,26 +2640,22 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t xml:space="preserve">4:00 am meet for Sarah and Aivy at Wayside Park (then meet Lori) </t>
+          <t>https://goo.gl/maps/7Ady9a9f1nnktk6MA</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
     </row>
@@ -2663,7 +2667,7 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1175 W SPRING STREET</t>
+          <t>BUTERA MARKET #503, SOUTH ELGIN</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -2675,14 +2679,10 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
@@ -2693,24 +2693,26 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4:00 am meet for Sarah and Aivy at Wayside Park (then meet Lori) </t>
+        </is>
+      </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx
-1st Kro Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X41" t="inlineStr"/>
@@ -2724,7 +2726,7 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/uiv69gCiLa9sHQt39</t>
+          <t>1175 W SPRING STREET</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -2736,7 +2738,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2753,36 +2755,25 @@
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>Driver, Equip</t>
-        </is>
-      </c>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
           <t>@ Store,
-Supv Rx</t>
+Rx
+1st Kro Rx</t>
         </is>
       </c>
       <c r="X42" t="inlineStr"/>
@@ -2796,7 +2787,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:00 am at IL Office</t>
+          <t>https://goo.gl/maps/uiv69gCiLa9sHQt39</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -2808,13 +2799,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
@@ -2828,33 +2818,34 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>1st Aurora</t>
+          <t>Driver, Equip</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="X43" t="inlineStr"/>
@@ -2868,7 +2859,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Counting Liq at this location too this time (will be mapped)</t>
+          <t>*IL Meet is 5:00 am at IL Office</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -2880,12 +2871,13 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="L44" t="inlineStr"/>
@@ -2899,34 +2891,33 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>meet Sarah 4:45 @ Hwy N PnR</t>
+          <t>1st Aurora</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>@ Store,
-Until 10:00</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X44" t="inlineStr"/>
@@ -2938,7 +2929,11 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Counting Liq at this location too this time (will be mapped)</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
@@ -2948,7 +2943,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2961,13 +2956,38 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>meet Sarah 4:45 @ Hwy N PnR</t>
+        </is>
+      </c>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>@ Store,
+Until 10:00</t>
+        </is>
+      </c>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
     </row>
@@ -2976,21 +2996,9 @@
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
@@ -2999,7 +3007,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3041,18 +3049,17 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -3063,7 +3070,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3085,19 +3092,11 @@
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:30 AM START </t>
-        </is>
-      </c>
+      <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
@@ -3109,19 +3108,36 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Keshawn</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
@@ -3142,7 +3158,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t xml:space="preserve">6:30 AM START </t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -3150,7 +3166,7 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -3164,20 +3180,15 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>Keshawn</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -3198,7 +3209,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>KELLEY #60, LOGAN AVE MOBIL, BELVIDERE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3206,7 +3217,7 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
         <is>
-          <t>FESTIVAL #2693, STEVENS POINT</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -3220,26 +3231,23 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Gray Van</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
@@ -3257,7 +3265,7 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>1776 LOGAN AVE</t>
+          <t>KELLEY #60, LOGAN AVE MOBIL, BELVIDERE</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3265,7 +3273,7 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>1600 ACADEMY DR</t>
+          <t>FESTIVAL #2693, STEVENS POINT</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -3279,12 +3287,12 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3296,7 +3304,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3313,15 +3321,15 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van</t>
+          <t>Driver,
+Corolla</t>
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/GwirBabPWYB2</t>
+          <t>1776 LOGAN AVE</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3329,7 +3337,7 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/9atNgUjfZf2FLKDK9</t>
+          <t>1600 ACADEMY DR</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -3343,12 +3351,12 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3360,7 +3368,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION HWY 33, HARTFORD</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -3380,7 +3388,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>JEFF IS THE DM</t>
+          <t>https://goo.gl/maps/GwirBabPWYB2</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3388,7 +3396,7 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
         <is>
-          <t>5:15 am meet for Sarah, Aivy, Josie &amp; Lori at Portage Walmart</t>
+          <t>https://goo.gl/maps/9atNgUjfZf2FLKDK9</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -3402,12 +3410,12 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3419,7 +3427,7 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>W346 LUEDTKE LANE</t>
+          <t>DHILLON'S STATION HWY 33, HARTFORD</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -3431,26 +3439,25 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>Makeda</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Check in with Alpine after finishing up counts to see if help needed</t>
+          <t>JEFF IS THE DM</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>5:20 am meet for Sarah, Aivy, Josie &amp; Lori at Portage Walmart</t>
+        </is>
+      </c>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
@@ -3460,41 +3467,58 @@
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/sBbGZTSeFYGcwxAe7</t>
+          <t>W346 LUEDTKE LANE</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Driver,
+Gray Van</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Check in with Alpine after finishing up counts to see if help needed</t>
+        </is>
+      </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
     </row>
@@ -3508,40 +3532,36 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/sBbGZTSeFYGcwxAe7</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>Camry 3 available, Equip</t>
-        </is>
-      </c>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Aivy</t>
-        </is>
-      </c>
-      <c r="W55" t="inlineStr"/>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
     </row>
@@ -3551,57 +3571,41 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Brett</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Camry 3 available, Equip</t>
+        </is>
+      </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="W56" t="inlineStr"/>
@@ -3616,62 +3620,58 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Brett</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>Driver 1/2</t>
-        </is>
-      </c>
+          <t>Josie</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
     </row>
@@ -3683,19 +3683,19 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>KELLEY #63, SUN PRAIRIE MOBIL</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3707,31 +3707,31 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>DHILLON'S BP, MARKESAN</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
@@ -3750,19 +3750,19 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1010 DAVISON DR</t>
+          <t>KELLEY #63, SUN PRAIRIE MOBIL</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3774,36 +3774,36 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>N1894 WI-44 (HWY 44 &amp; 73)</t>
+          <t>DHILLON'S BP, MARKESAN</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Jacqui</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver 1/2</t>
         </is>
       </c>
       <c r="X59" t="inlineStr"/>
@@ -3817,35 +3817,55 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/AcJV9qEV2xQ2</t>
+          <t>1010 DAVISON DR</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/uRQ5w6AXAun5KEMW7</t>
+          <t>N1894 WI-44 (HWY 44 &amp; 73)</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Jacqui</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
@@ -3864,7 +3884,7 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:15 am at IL Office</t>
+          <t>https://goo.gl/maps/AcJV9qEV2xQ2</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -3876,7 +3896,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>5:15 am meet for Sarah and Aivy at Portage Walmart</t>
+          <t>https://goo.gl/maps/uRQ5w6AXAun5KEMW7</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -3887,12 +3907,12 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
@@ -3911,39 +3931,35 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>5:45 am meet for Sarah and Aivy at Wayside Park</t>
+          <t>*IL Meet is 5:15 am at IL Office</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:00 AM START </t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>5:15 am meet for Sarah and Aivy at Portage Walmart</t>
+        </is>
+      </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
@@ -3960,49 +3976,41 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5:45 am meet for Sarah and Aivy at Wayside Park</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL </t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>Driver, Equip</t>
-        </is>
-      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
@@ -4018,58 +4026,50 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Driver, Equip</t>
-        </is>
-      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION IXONIA</t>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Aivy</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Driver, Equip</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>KELLEY #39, ALPINE MOBIL, ROCKFORD</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
@@ -4087,55 +4087,63 @@
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1st KW</t>
+          <t>Driver, Equip</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>W1168 AMERICAN ST HWY 16</t>
+          <t>DHILLON'S STATION IXONIA</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Josie</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>@ Store w/ Lori</t>
-        </is>
-      </c>
+          <t>Aivy</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
-          <t>321 N ALPINE ROAD</t>
+          <t>KELLEY #39, ALPINE MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>Nagui</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
     </row>
@@ -4146,49 +4154,48 @@
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Driver,
-Corolla</t>
+          <t>1st KW</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/YXYWpM5kCeT2</t>
+          <t>W1168 AMERICAN ST HWY 16</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Driver</t>
+          <t>@ Store w/ Lori</t>
         </is>
       </c>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TGuxbxW7qpk</t>
+          <t>321 N ALPINE ROAD</t>
         </is>
       </c>
       <c r="S66" t="inlineStr"/>
@@ -4206,30 +4213,51 @@
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Driver,
+Corolla</t>
+        </is>
+      </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>4:45 am meet for Sarah and Aivy at Wayside Park</t>
+          <t>https://goo.gl/maps/YXYWpM5kCeT2</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/TGuxbxW7qpk</t>
+        </is>
+      </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
@@ -4245,43 +4273,31 @@
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>4:45 am meet for Sarah and Aivy at Wayside Park</t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
@@ -4296,51 +4312,43 @@
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>
@@ -4353,38 +4361,50 @@
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Aivy</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S70" t="inlineStr"/>
@@ -4406,43 +4426,35 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>Driver</t>
-        </is>
-      </c>
+          <t>Aivy</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>KELLEY #04, BUCKLEY MOBIL, ROCKFORD</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
@@ -4461,39 +4473,43 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver</t>
         </is>
       </c>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>7250 E STATE ST</t>
+          <t>KELLEY #04, BUCKLEY MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="S72" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
@@ -4510,26 +4526,38 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/iWT8Ab5cEgB2</t>
+          <t>7250 E STATE ST</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="S73" t="inlineStr"/>
@@ -4554,11 +4582,23 @@
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/iWT8Ab5cEgB2</t>
+        </is>
+      </c>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
@@ -4577,28 +4617,12 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>
@@ -4622,22 +4646,26 @@
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr"/>
@@ -4661,19 +4689,19 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>KELLEY #32, EDGEBROOK MOBIL, ROCKFORD</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
@@ -4700,26 +4728,22 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>1621 N ALPINE RD</t>
+          <t>KELLEY #32, EDGEBROOK MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr"/>
@@ -4743,22 +4767,26 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/BABsK9aESqG2</t>
+          <t>1621 N ALPINE RD</t>
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
@@ -4780,17 +4808,21 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/BABsK9aESqG2</t>
+        </is>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="O80" t="inlineStr"/>
@@ -4814,24 +4846,20 @@
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
@@ -4855,15 +4883,19 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr"/>
@@ -4890,12 +4922,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K83" t="inlineStr"/>
@@ -4925,19 +4957,15 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
@@ -4964,15 +4992,19 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
@@ -4988,6 +5020,41 @@
       <c r="X85" t="inlineStr"/>
       <c r="Y85" t="inlineStr"/>
     </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/09-15-24 to 09-21-24 Madison Schedule.xlsx
+++ b/09-15-24 to 09-21-24 Madison Schedule.xlsx
@@ -680,7 +680,11 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>*OUTSIDE AUDITORS</t>
+        </is>
+      </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
@@ -1445,7 +1449,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -1517,15 +1521,10 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Camry 3</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
@@ -1594,10 +1593,15 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Keshawn</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
@@ -1683,7 +1687,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Keshawn</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -1753,7 +1757,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -1800,10 +1804,15 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Makeda</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima</t>
+        </is>
+      </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
@@ -1851,13 +1860,14 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Optima</t>
+Optima,
+Rx</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
@@ -1916,14 +1926,12 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Curt</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Optima,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
@@ -1981,7 +1989,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Curt</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2045,7 +2053,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -2108,7 +2116,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2171,7 +2179,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -2227,21 +2235,9 @@
         </is>
       </c>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>Robyn</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
@@ -2355,7 +2351,11 @@
       </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
@@ -2421,7 +2421,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2468,7 +2468,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1178 LAKE GENEVA</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2515,7 +2515,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1178 LAKE GENEVA</t>
+          <t>146 E GENEVA SQ</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2527,10 +2527,15 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Makeda</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Driver,
+Gray Van</t>
+        </is>
+      </c>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
     </row>
@@ -2576,7 +2581,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>146 E GENEVA SQ</t>
+          <t>https://goo.gl/maps/7Ady9a9f1nnktk6MA</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2588,15 +2593,10 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>Driver,
-Gray Van</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
     </row>
@@ -2636,7 +2636,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/7Ady9a9f1nnktk6MA</t>
+          <t xml:space="preserve">4:00 am meet for Sarah and Aivy at Wayside Park (then meet Lori) </t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2648,10 +2648,14 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr"/>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
     </row>
@@ -2689,11 +2693,7 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4:00 am meet for Sarah and Aivy at Wayside Park (then meet Lori) </t>
-        </is>
-      </c>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
@@ -2703,12 +2703,14 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx
+1st Kro Rx</t>
         </is>
       </c>
       <c r="X41" t="inlineStr"/>
@@ -2751,9 +2753,21 @@
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Driver, Equip</t>
+        </is>
+      </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
@@ -2762,14 +2776,13 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
           <t>@ Store,
-Rx
-1st Kro Rx</t>
+Supv Rx</t>
         </is>
       </c>
       <c r="X42" t="inlineStr"/>
@@ -2814,17 +2827,17 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>Driver, Equip</t>
+          <t>1st Aurora</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
@@ -2835,13 +2848,12 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X43" t="inlineStr"/>
@@ -2887,17 +2899,17 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>1st Aurora</t>
+          <t>meet Sarah 4:45 @ Hwy N PnR</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
@@ -2908,12 +2920,13 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Until 10:00</t>
         </is>
       </c>
       <c r="X44" t="inlineStr"/>
@@ -2952,38 +2965,13 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>meet Sarah 4:45 @ Hwy N PnR</t>
-        </is>
-      </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>@ Store,
-Until 10:00</t>
-        </is>
-      </c>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
     </row>
@@ -3088,11 +3076,19 @@
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6:30 AM START </t>
+        </is>
+      </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
@@ -3154,7 +3150,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:30 AM START </t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -3162,7 +3158,7 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -3205,7 +3201,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>KELLEY #60, LOGAN AVE MOBIL, BELVIDERE</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3213,7 +3209,7 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FESTIVAL #2693, STEVENS POINT</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -3261,7 +3257,7 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>KELLEY #60, LOGAN AVE MOBIL, BELVIDERE</t>
+          <t>1776 LOGAN AVE</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3269,7 +3265,7 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>FESTIVAL #2693, STEVENS POINT</t>
+          <t>1600 ACADEMY DR</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -3325,7 +3321,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>1776 LOGAN AVE</t>
+          <t>https://goo.gl/maps/GwirBabPWYB2</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3333,7 +3329,7 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>1600 ACADEMY DR</t>
+          <t>https://goo.gl/maps/9atNgUjfZf2FLKDK9</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -3379,12 +3375,17 @@
           <t>Keilah</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr"/>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>@ Store,
+Until 10:00</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/GwirBabPWYB2</t>
+          <t>JEFF IS THE DM</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3392,7 +3393,7 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/9atNgUjfZf2FLKDK9</t>
+          <t>5:20 am meet for Sarah, Aivy, Josie &amp; Lori at Portage Walmart</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -3443,17 +3444,13 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>JEFF IS THE DM</t>
+          <t>Check in with Alpine after finishing up counts to see if help needed</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>5:20 am meet for Sarah, Aivy, Josie &amp; Lori at Portage Walmart</t>
-        </is>
-      </c>
+      <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
@@ -3505,16 +3502,24 @@
       </c>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>Check in with Alpine after finishing up counts to see if help needed</t>
-        </is>
-      </c>
+      <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
     </row>
@@ -3539,25 +3544,33 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Camry 3 available, Equip</t>
+        </is>
+      </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Aivy</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
     </row>
@@ -3580,28 +3593,24 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>Camry 3 available, Equip</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="W56" t="inlineStr"/>
@@ -3647,27 +3656,31 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Josie</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Driver 1/2</t>
+        </is>
+      </c>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
     </row>
@@ -3710,24 +3723,24 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
@@ -3777,29 +3790,29 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Jacqui</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>Driver 1/2</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X59" t="inlineStr"/>
@@ -3842,26 +3855,18 @@
       </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Jacqui</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
@@ -3903,12 +3908,12 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
@@ -3945,17 +3950,21 @@
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
@@ -3994,19 +4003,19 @@
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
@@ -4053,19 +4062,19 @@
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>KELLEY #39, ALPINE MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
@@ -4120,26 +4129,14 @@
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
-          <t>KELLEY #39, ALPINE MOBIL, ROCKFORD</t>
+          <t>321 N ALPINE ROAD</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>Nagui</t>
-        </is>
-      </c>
-      <c r="W65" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
     </row>
@@ -4191,7 +4188,7 @@
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr">
         <is>
-          <t>321 N ALPINE ROAD</t>
+          <t>https://goo.gl/maps/TGuxbxW7qpk</t>
         </is>
       </c>
       <c r="S66" t="inlineStr"/>
@@ -4249,11 +4246,7 @@
       </c>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/TGuxbxW7qpk</t>
-        </is>
-      </c>
+      <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
@@ -4291,9 +4284,21 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
@@ -4332,19 +4337,15 @@
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>
@@ -4395,12 +4396,12 @@
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S70" t="inlineStr"/>
@@ -4442,15 +4443,19 @@
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Laci</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
@@ -4493,19 +4498,15 @@
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
@@ -4548,12 +4549,12 @@
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="S73" t="inlineStr"/>
@@ -4585,16 +4586,8 @@
       </c>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
